--- a/analysis/ancillary/cluster-chems.xlsx
+++ b/analysis/ancillary/cluster-chems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36040" yWindow="0" windowWidth="38520" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eric-cts-vs-pubchem.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="724">
   <si>
     <t>name</t>
   </si>
@@ -2167,6 +2167,30 @@
   </si>
   <si>
     <t>CCCCCOC(=O)CC</t>
+  </si>
+  <si>
+    <t>Decanoic Acid</t>
+  </si>
+  <si>
+    <t>GHVNFZFCNZKVNT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H20O2/c1-2-3-4-5-6-7-8-9-10(11)12/h2-9H2,1H3,(H,11,12)</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCC(=O)O</t>
+  </si>
+  <si>
+    <t>2-Coumaranone</t>
+  </si>
+  <si>
+    <t>ACZGCWSMSTYWDQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>InChI=1S/C8H6O2/c9-8-5-6-3-1-2-4-7(6)10-8/h1-4H,5H2</t>
+  </si>
+  <si>
+    <t>C1C2=CC=CC=C2OC1=O</t>
   </si>
 </sst>
 </file>
@@ -2215,8 +2239,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="235">
+  <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2455,7 +2485,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="235">
+  <cellStyles count="241">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2573,6 +2603,9 @@
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2690,6 +2723,9 @@
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3019,10 +3055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:H169"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7460,12 +7496,63 @@
         <v>644</v>
       </c>
     </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>716</v>
+      </c>
+      <c r="B170">
+        <v>2969</v>
+      </c>
+      <c r="C170" t="s">
+        <v>717</v>
+      </c>
+      <c r="D170" t="s">
+        <v>83</v>
+      </c>
+      <c r="E170" t="s">
+        <v>83</v>
+      </c>
+      <c r="F170" t="s">
+        <v>718</v>
+      </c>
+      <c r="G170" t="s">
+        <v>719</v>
+      </c>
+      <c r="H170" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>720</v>
+      </c>
+      <c r="B171">
+        <v>68382</v>
+      </c>
+      <c r="C171" t="s">
+        <v>721</v>
+      </c>
+      <c r="D171" t="s">
+        <v>83</v>
+      </c>
+      <c r="E171" t="s">
+        <v>83</v>
+      </c>
+      <c r="F171" t="s">
+        <v>722</v>
+      </c>
+      <c r="G171" t="s">
+        <v>723</v>
+      </c>
+      <c r="H171" t="s">
+        <v>723</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I174">
     <sortCondition ref="A141"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
